--- a/demo/1azg_low_scoring_example_output.xlsx
+++ b/demo/1azg_low_scoring_example_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>restraints</t>
   </si>
@@ -34,13 +34,7 @@
     <t>wi</t>
   </si>
   <si>
-    <t>wj</t>
-  </si>
-  <si>
     <t>dij</t>
-  </si>
-  <si>
-    <t>wij</t>
   </si>
   <si>
     <t>fdij</t>
@@ -419,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,16 +453,10 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
       </c>
       <c r="B2">
         <v>22.6567287445068</v>
@@ -486,30 +474,24 @@
         <v>0.9090909090909091</v>
       </c>
       <c r="G2">
-        <v>0.8181818181818182</v>
+        <v>2.064</v>
       </c>
       <c r="H2">
-        <v>2.064</v>
+        <v>0.7679735396567061</v>
       </c>
       <c r="I2">
-        <v>0.8636363636363636</v>
+        <v>0.6981577633242783</v>
       </c>
       <c r="J2">
-        <v>0.7679735396567062</v>
+        <v>0.0006318737292684411</v>
       </c>
       <c r="K2">
-        <v>0.6632498751580644</v>
-      </c>
-      <c r="L2">
-        <v>0.0006318737292684411</v>
-      </c>
-      <c r="M2">
         <v>0.001481481481481483</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>22.6419582366943</v>
@@ -527,30 +509,24 @@
         <v>0.9090909090909091</v>
       </c>
       <c r="G3">
-        <v>0.6363636363636364</v>
+        <v>2.091</v>
       </c>
       <c r="H3">
-        <v>2.091</v>
+        <v>0.7475156780180909</v>
       </c>
       <c r="I3">
-        <v>0.7727272727272727</v>
+        <v>0.6795597072891736</v>
       </c>
       <c r="J3">
-        <v>0.7475156780180909</v>
+        <v>0.02130937017664357</v>
       </c>
       <c r="K3">
-        <v>0.5776257511957975</v>
-      </c>
-      <c r="L3">
-        <v>0.02130937017664357</v>
-      </c>
-      <c r="M3">
         <v>0.005925925925925924</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>22.7640991210937</v>
@@ -568,24 +544,18 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="G4">
-        <v>0.8181818181818182</v>
+        <v>2.429</v>
       </c>
       <c r="H4">
-        <v>2.429</v>
+        <v>0.5331246591925922</v>
       </c>
       <c r="I4">
-        <v>0.5909090909090909</v>
+        <v>0.1938635124336699</v>
       </c>
       <c r="J4">
-        <v>0.5331246591925922</v>
+        <v>0.01733107483902692</v>
       </c>
       <c r="K4">
-        <v>0.3150282077047136</v>
-      </c>
-      <c r="L4">
-        <v>0.01733107483902692</v>
-      </c>
-      <c r="M4">
         <v>0.001481481481481483</v>
       </c>
     </row>
